--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F0C835-B5D8-45B2-928E-F8C51D80189D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47716CCC-0963-4274-A659-77C1A23BEADA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
     <sheet name="개인일정관리" sheetId="2" r:id="rId2"/>
+    <sheet name="모임그룹관리" sheetId="5" r:id="rId3"/>
+    <sheet name="모임 장소 및 시간 추천" sheetId="6" r:id="rId4"/>
+    <sheet name="추천 모임일정에 대한 피드백" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +370,26 @@
   </si>
   <si>
     <t>BF5. 일정 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임그룹관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 장소 및 시간 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 모임일정에 대한 피드백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +793,7 @@
   <dimension ref="B3:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -957,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1260,4 +1283,546 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
+  <dimension ref="B3:J15"/>
+  <sheetViews>
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="20.296875" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="10" max="10" width="9.296875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14"/>
+      <c r="F14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15"/>
+      <c r="F15"/>
+      <c r="J15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B30085F-5542-4CF5-BE7C-A3E5981ECF61}">
+  <dimension ref="B3:J15"/>
+  <sheetViews>
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="20.296875" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="10" max="10" width="9.296875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14"/>
+      <c r="F14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15"/>
+      <c r="F15"/>
+      <c r="J15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
+  <dimension ref="B3:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.796875" customWidth="1"/>
+    <col min="4" max="4" width="20.296875" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="10" max="10" width="9.296875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14"/>
+      <c r="F14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15"/>
+      <c r="F15"/>
+      <c r="J15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47716CCC-0963-4274-A659-77C1A23BEADA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BFD8E5-BE32-4BF1-99C4-E13A5D946A8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1290,7 +1290,7 @@
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1651,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
   <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BFD8E5-BE32-4BF1-99C4-E13A5D946A8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B435D-6DFF-4820-9C2F-891D4E2EAFB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20310" windowHeight="16110" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="161">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,14 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다음 세 가지 류의 일정을 포함한 
-Input Data Set
-1) 일정 이름이 미작성된 일정
-2) 일정 날짜가 미설정된 일정
-3) 일정 시간이 미설정된 일정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기존 일정과 중복된 시간대를 가진 일정 포함한 Input Data Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,23 +266,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//예시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -357,22 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BF2. 외부 일정 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF3. 어플 내 일정 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF4. 일정 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BF5. 일정 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,6 +354,490 @@
   </si>
   <si>
     <t>추천 모임일정에 대한 피드백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//예시 모두 작성 후 삭제 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 일정 이름이 미작성된 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2) 일정 날짜가 미설정된 일정
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 일정 시간이 미설정된 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 일정 이름이 미작성된 일정
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF1. 모임 내역 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF1. 진행한 모임 일정이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행한 일정이 없습니다' 메시지를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF2. 시간/장소 피드백이 모두 '보통'인 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유스케이스 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF3. 시간/장소 피드백이 변하지 않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 변동 없이 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(보통,보통)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(좋음,좋음), 겹치는 일정 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(좋음,좋음), 겹치는 일정 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우(시간대 가중치 최대치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우(일정 조정 가중치 최소치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(좋음,나쁨), 겹치는 일정 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(좋음,나쁨), 겹치는 일정 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 감소, 장소 우선순위 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최소치, 장소 우선순위 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 증가, 장소 우선순위 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최대치, 장소 우선순위 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 감소, 장소 우선순위 감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최소치, 장소 우선순위 감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 증가, 장소 우선순위 감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최대치, 장소 우선순위 감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(나쁨,좋음), 겹치는 일정 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(나쁨,좋음), 겹치는 일정 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우(일정 조정 가중치 최대치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우(시간대 가중치 최소치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 증가, 장소 우선순위 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최대치, 장소 우선순위 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최소치, 장소 우선순위 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 감소, 장소 우선순위 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(나쁨,나쁨), 겹치는 일정 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(나쁨,나쁨), 겹치는 일정 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 증가, 장소 우선순위 감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최대치, 장소 우선순위 감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 감소, 장소 우선순위 감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최소치, 장소 우선순위 감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임에 새로운 모임 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF1. 모임 이름 중복 오류 발생</t>
+  </si>
+  <si>
+    <t>기존 모임과 이름이 같은 모임 이름의 Input Data Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘이미 존재하는 모임 이름입니다.라는 메시지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_13</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>모임 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_14</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>SC_15</t>
+  </si>
+  <si>
+    <t>AF2. 변경 권한 없음</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>모임장이 아닌 모임원의 Input Data Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메세지를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면상출력한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_16</t>
+  </si>
+  <si>
+    <t>AF3. 모임 수정 취소</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>모임 수정' 버튼 클릭 후, “모임 정보를 수정하시겠습니까?”라는 메시지의
+'취소' 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 수정된 모임 정보를 저장하지 않고 본 유스케이스를 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_17</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>모임 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_18</t>
+  </si>
+  <si>
+    <t>AF4. 모임 삭제 취소</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>모임 삭제' 버튼 클릭 후, “모임을 삭제하시겠습니까?”라는 메시지의
+'취소' 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 정보를 그대로 둔 채 본 유스케이스를 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +881,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -442,7 +897,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -476,11 +931,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,6 +977,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,21 +1290,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" customWidth="1"/>
-    <col min="5" max="5" width="36.09765625" customWidth="1"/>
-    <col min="6" max="6" width="35.59765625" customWidth="1"/>
-    <col min="7" max="7" width="32.796875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="35.625" customWidth="1"/>
+    <col min="7" max="7" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -826,7 +1324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -846,10 +1344,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -863,9 +1361,9 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -877,7 +1375,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
@@ -891,9 +1389,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -905,7 +1403,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -913,7 +1411,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -921,7 +1419,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -929,7 +1427,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -937,7 +1435,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -945,7 +1443,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -953,7 +1451,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -961,7 +1459,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -978,26 +1476,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:J15"/>
+  <dimension ref="B3:J19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="20.296875" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1026,7 +1524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1034,7 +1532,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
@@ -1049,7 +1547,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1057,7 +1555,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>31</v>
@@ -1066,7 +1564,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>33</v>
@@ -1074,7 +1572,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1082,7 +1580,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
@@ -1092,12 +1590,12 @@
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1105,7 +1603,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
@@ -1114,15 +1612,15 @@
         <v>36</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="87" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1130,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>39</v>
@@ -1139,144 +1637,244 @@
         <v>40</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>59</v>
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14"/>
-      <c r="F14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15"/>
-      <c r="F15"/>
-      <c r="J15"/>
+    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="F18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="F19"/>
+      <c r="J19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1289,24 +1887,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
   <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="20.296875" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1335,101 +1933,195 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G5" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="2:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1440,7 +2132,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1451,12 +2143,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="F14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="F15"/>
       <c r="J15"/>
@@ -1473,23 +2165,23 @@
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="20.296875" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1518,20 +2210,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1542,7 +2238,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1553,7 +2249,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1564,7 +2260,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1575,7 +2271,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1586,7 +2282,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1597,7 +2293,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1608,7 +2304,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1619,7 +2315,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1630,12 +2326,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="F14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="F15"/>
       <c r="J15"/>
@@ -1649,27 +2345,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
-  <dimension ref="B3:J15"/>
+  <dimension ref="B3:J30"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.796875" customWidth="1"/>
-    <col min="4" max="4" width="20.296875" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1698,127 +2394,532 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
+    <row r="4" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
+    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="5"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="5"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14"/>
-      <c r="F14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15"/>
-      <c r="F15"/>
-      <c r="J15"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="5"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+      <c r="F30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B435D-6DFF-4820-9C2F-891D4E2EAFB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544D5F4-D8A6-4002-B0DD-87B2ACA6F86E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20310" windowHeight="16110" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="162">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF3. 시간/장소 피드백이 변하지 않은 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,14 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF4. 가중치 범위를 벗어난 경우(시간대 가중치 최대치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF4. 가중치 범위를 벗어난 경우(일정 조정 가중치 최소치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피드백 생성(좋음,나쁨), 겹치는 일정 있는 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,38 +515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일정의 조정 가중치 감소, 장소 우선순위 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 최소치, 장소 우선순위 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 증가, 장소 우선순위 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 최대치, 장소 우선순위 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 감소, 장소 우선순위 감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 최소치, 장소 우선순위 감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 증가, 장소 우선순위 감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 최대치, 장소 우선순위 감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피드백 생성(나쁨,좋음), 겹치는 일정 있는 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,51 +523,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF4. 가중치 범위를 벗어난 경우(일정 조정 가중치 최대치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF4. 가중치 범위를 벗어난 경우(시간대 가중치 최소치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 증가, 장소 우선순위 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 최대치, 장소 우선순위 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 최소치, 장소 우선순위 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 감소, 장소 우선순위 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피드백 생성(나쁨,나쁨), 겹치는 일정 있는 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>피드백 생성(나쁨,나쁨), 겹치는 일정 없는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 증가, 장소 우선순위 감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 최대치, 장소 우선순위 감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 감소, 장소 우선순위 감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 최소치, 장소 우선순위 감소하며 새로운 피드백 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -840,6 +756,115 @@
     <t>모임 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>일정의 조정 가중치 감소, 장소 우선순위 
+증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(좋음,나쁨), 겹치는 일정없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최소치, 장소 우선순위
+ 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 증가, 장소 우선순위
+ 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최대치, 장소 우선순위
+ 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 감소, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최소치, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 증가, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최대치, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 증가, 장소 우선순위 
+증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최대치, 장소 우선순위
+ 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 감소, 장소 우선순위 
+증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최소치, 장소 우선순위 
+증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 증가, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최대치, 장소 우선순위
+ 감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 감소, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최소치, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우
+(일정 조정 가중치 최소치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우
+(시간대 가중치 최대치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우
+(일정 조정 가중치 최대치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우
+(시간대 가중치 최소치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF3. 시간/장소 피드백이 변하지 
+않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -897,7 +922,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -944,11 +969,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,9 +1033,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1007,6 +1053,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,17 +1349,17 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="36.125" customWidth="1"/>
-    <col min="6" max="6" width="35.625" customWidth="1"/>
-    <col min="7" max="7" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" customWidth="1"/>
+    <col min="5" max="5" width="36.09765625" customWidth="1"/>
+    <col min="6" max="6" width="35.59765625" customWidth="1"/>
+    <col min="7" max="7" width="32.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1347,7 +1402,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1361,7 +1416,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1375,7 +1430,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1389,7 +1444,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
@@ -1403,7 +1458,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1411,7 +1466,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1419,7 +1474,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1427,7 +1482,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1435,7 +1490,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1443,7 +1498,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1451,7 +1506,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1459,7 +1514,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1478,24 +1533,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1524,7 +1579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1547,7 +1602,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1627,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1595,7 +1650,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1675,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1645,7 +1700,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
@@ -1670,7 +1725,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1695,7 +1750,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1718,7 +1773,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1743,7 +1798,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
@@ -1768,7 +1823,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1793,7 +1848,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
@@ -1818,7 +1873,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1841,7 +1896,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
         <v>50</v>
       </c>
@@ -1866,12 +1921,12 @@
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18"/>
       <c r="F18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19"/>
       <c r="F19"/>
       <c r="J19"/>
@@ -1885,26 +1940,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
-  <dimension ref="B3:J15"/>
+  <dimension ref="B3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1933,225 +1988,203 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
+      <c r="D4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="D11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="G11" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14" t="s">
+      <c r="H11" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="2:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-      <c r="F14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-      <c r="F15"/>
-      <c r="J15"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12"/>
+      <c r="F12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13"/>
+      <c r="F13"/>
+      <c r="J13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2168,20 +2201,20 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2210,7 +2243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
@@ -2227,7 +2260,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2238,7 +2271,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2249,7 +2282,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2260,7 +2293,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2271,7 +2304,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2282,7 +2315,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2293,7 +2326,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2304,7 +2337,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2315,7 +2348,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2326,12 +2359,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14"/>
       <c r="F14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15"/>
       <c r="F15"/>
       <c r="J15"/>
@@ -2345,27 +2378,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
-  <dimension ref="B3:J30"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="8" max="8" width="36.3984375" customWidth="1"/>
+    <col min="9" max="9" width="27.09765625" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2394,30 +2430,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
@@ -2425,7 +2461,7 @@
         <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>85</v>
@@ -2435,364 +2471,364 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>112</v>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>113</v>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B12" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>114</v>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B13" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>115</v>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>120</v>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>121</v>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>123</v>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>122</v>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="D19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2" t="s">
+      <c r="D20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="D21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G21" s="5"/>
+      <c r="H21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2803,7 +2839,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
         <v>88</v>
       </c>
@@ -2811,7 +2847,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
@@ -2824,30 +2860,30 @@
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B24" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="D24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
         <v>87</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
         <v>93</v>
       </c>
@@ -2855,44 +2891,45 @@
         <v>65</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>85</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>65</v>
@@ -2902,9 +2939,10 @@
       <c r="F27" s="4"/>
       <c r="G27" s="9"/>
       <c r="H27" s="5"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="21"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2912,12 +2950,14 @@
       <c r="F28" s="4"/>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="22"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30"/>
       <c r="F30"/>
     </row>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544D5F4-D8A6-4002-B0DD-87B2ACA6F86E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFA02B-C881-47BF-97DF-D85185F6BAB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="161">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,12 +180,6 @@
   </si>
   <si>
     <t>TC_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“해당 시간대에 이미 등록된 
-일정이 존재합니다”라는
-메시지를 화면상에 출력한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -583,286 +577,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SC_16</t>
+  </si>
+  <si>
+    <t>AF3. 모임 수정 취소</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>모임 수정' 버튼 클릭 후, “모임 정보를 수정하시겠습니까?”라는 메시지의
+'취소' 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 수정된 모임 정보를 저장하지 않고 본 유스케이스를 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_17</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>모임 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_18</t>
+  </si>
+  <si>
+    <t>AF4. 모임 삭제 취소</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>모임 삭제' 버튼 클릭 후, “모임을 삭제하시겠습니까?”라는 메시지의
+'취소' 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 정보를 그대로 둔 채 본 유스케이스를 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 감소, 장소 우선순위 
+증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 생성(좋음,나쁨), 겹치는 일정없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최소치, 장소 우선순위
+ 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 증가, 장소 우선순위
+ 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최대치, 장소 우선순위
+ 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 감소, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최소치, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 증가, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최대치, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 증가, 장소 우선순위 
+증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최대치, 장소 우선순위
+ 증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 감소, 장소 우선순위 
+증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최소치, 장소 우선순위 
+증가하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 증가, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정의 조정 가중치 최대치, 장소 우선순위
+ 감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 감소, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대 가중치 최소치, 장소 우선순위 
+감소하며 새로운 피드백 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우
+(일정 조정 가중치 최소치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우
+(시간대 가중치 최대치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우
+(일정 조정 가중치 최대치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 가중치 범위를 벗어난 경우
+(시간대 가중치 최소치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF3. 시간/장소 피드백이 변하지 
+않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>‘</t>
+      <t>‘모임장만 접근이 가능합니다</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="돋움"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>해당</t>
+      <t>’라는 메세지를 화면상출력</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>권한이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>없습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>라는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메세지를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면상출력한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_16</t>
-  </si>
-  <si>
-    <t>AF3. 모임 수정 취소</t>
-  </si>
-  <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t>모임 수정' 버튼 클릭 후, “모임 정보를 수정하시겠습니까?”라는 메시지의
-'취소' 버튼 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 수정된 모임 정보를 저장하지 않고 본 유스케이스를 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_17</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>모임 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_18</t>
-  </si>
-  <si>
-    <t>AF4. 모임 삭제 취소</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>모임 삭제' 버튼 클릭 후, “모임을 삭제하시겠습니까?”라는 메시지의
-'취소' 버튼 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모임 정보를 그대로 둔 채 본 유스케이스를 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모임 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모임 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 감소, 장소 우선순위 
-증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피드백 생성(좋음,나쁨), 겹치는 일정없는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 최소치, 장소 우선순위
- 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 증가, 장소 우선순위
- 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 최대치, 장소 우선순위
- 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 감소, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 최소치, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 증가, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 최대치, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 증가, 장소 우선순위 
-증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 최대치, 장소 우선순위
- 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 감소, 장소 우선순위 
-증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 최소치, 장소 우선순위 
-증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 증가, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 최대치, 장소 우선순위
- 감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 감소, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 최소치, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF4. 가중치 범위를 벗어난 경우
-(일정 조정 가중치 최소치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF4. 가중치 범위를 벗어난 경우
-(시간대 가중치 최대치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF4. 가중치 범위를 벗어난 경우
-(일정 조정 가중치 최대치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF4. 가중치 범위를 벗어난 경우
-(시간대 가중치 최소치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF3. 시간/장소 피드백이 변하지 
-않은 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +799,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -997,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,6 +954,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1399,7 +1294,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -1418,7 +1313,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -1432,7 +1327,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
@@ -1446,7 +1341,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -1533,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1619,7 +1514,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>33</v>
@@ -1645,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
@@ -1667,17 +1562,17 @@
         <v>36</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>20</v>
@@ -1686,23 +1581,23 @@
         <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>20</v>
@@ -1711,23 +1606,23 @@
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>20</v>
@@ -1736,23 +1631,23 @@
         <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -1762,20 +1657,20 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>20</v>
@@ -1787,20 +1682,20 @@
         <v>35</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>20</v>
@@ -1809,23 +1704,23 @@
         <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>20</v>
@@ -1834,23 +1729,23 @@
         <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>20</v>
@@ -1859,23 +1754,23 @@
         <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>20</v>
@@ -1885,20 +1780,20 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>20</v>
@@ -1907,16 +1802,16 @@
         <v>26</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
@@ -1943,7 +1838,7 @@
   <dimension ref="B3:J13"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1990,188 +1885,188 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>124</v>
+      <c r="H8" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="G9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="H9" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="G11" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="H11" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
@@ -2245,15 +2140,15 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2380,7 +2275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2432,398 +2327,398 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
@@ -2841,98 +2736,98 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFA02B-C881-47BF-97DF-D85185F6BAB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F60C1FB-7A65-4B65-9AC1-64698868222C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
-    <sheet name="개인일정관리" sheetId="2" r:id="rId2"/>
-    <sheet name="모임그룹관리" sheetId="5" r:id="rId3"/>
-    <sheet name="모임 장소 및 시간 추천" sheetId="6" r:id="rId4"/>
-    <sheet name="추천 모임일정에 대한 피드백" sheetId="7" r:id="rId5"/>
+    <sheet name="UC1-개인일정관리" sheetId="2" r:id="rId2"/>
+    <sheet name="UC2-모임그룹관리" sheetId="5" r:id="rId3"/>
+    <sheet name="UC3-모임 장소 및 시간 추천" sheetId="6" r:id="rId4"/>
+    <sheet name="UC4-추천 모임일정에 대한 피드백" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="165">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,11 +586,6 @@
     <t>TC_16</t>
   </si>
   <si>
-    <t>모임 수정' 버튼 클릭 후, “모임 정보를 수정하시겠습니까?”라는 메시지의
-'취소' 버튼 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 수정된 모임 정보를 저장하지 않고 본 유스케이스를 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,13 +600,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_18</t>
-  </si>
-  <si>
     <t>AF4. 모임 삭제 취소</t>
-  </si>
-  <si>
-    <t>TC_18</t>
   </si>
   <si>
     <t>모임 삭제' 버튼 클릭 후, “모임을 삭제하시겠습니까?”라는 메시지의
@@ -754,6 +743,34 @@
       </rPr>
       <t>’라는 메세지를 화면상출력</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF2. 변경 권한 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 수정' 버튼 클릭 후, “모임 정보를 수정하시겠습니까?”라는 메시지의 '취소' 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1428,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1835,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
-  <dimension ref="B3:J13"/>
+  <dimension ref="B3:J14"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1891,7 +1908,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -1912,7 +1929,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>111</v>
@@ -1937,7 +1954,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
@@ -1958,7 +1975,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>111</v>
@@ -1983,7 +2000,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>120</v>
@@ -1995,7 +2012,7 @@
         <v>122</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
@@ -2008,7 +2025,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>124</v>
@@ -2017,69 +2034,94 @@
         <v>125</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>132</v>
+        <v>160</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12"/>
-      <c r="F12"/>
-      <c r="J12"/>
+    <row r="12" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13"/>
       <c r="F13"/>
       <c r="J13"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14"/>
+      <c r="F14"/>
+      <c r="J14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2093,7 +2135,7 @@
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2275,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A12" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2387,7 +2429,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
@@ -2403,14 +2445,14 @@
         <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
@@ -2431,7 +2473,7 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2447,14 +2489,14 @@
         <v>101</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
@@ -2475,7 +2517,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
@@ -2491,14 +2533,14 @@
         <v>102</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
@@ -2519,7 +2561,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
@@ -2532,17 +2574,17 @@
         <v>64</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
@@ -2563,7 +2605,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
@@ -2579,14 +2621,14 @@
         <v>104</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
@@ -2607,7 +2649,7 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
@@ -2623,14 +2665,14 @@
         <v>105</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
@@ -2651,7 +2693,7 @@
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
@@ -2667,14 +2709,14 @@
         <v>106</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
@@ -2695,7 +2737,7 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
@@ -2711,14 +2753,14 @@
         <v>107</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
@@ -2766,7 +2808,7 @@
         <v>108</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>91</v>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F60C1FB-7A65-4B65-9AC1-64698868222C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFA02B-C881-47BF-97DF-D85185F6BAB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
-    <sheet name="UC1-개인일정관리" sheetId="2" r:id="rId2"/>
-    <sheet name="UC2-모임그룹관리" sheetId="5" r:id="rId3"/>
-    <sheet name="UC3-모임 장소 및 시간 추천" sheetId="6" r:id="rId4"/>
-    <sheet name="UC4-추천 모임일정에 대한 피드백" sheetId="7" r:id="rId5"/>
+    <sheet name="개인일정관리" sheetId="2" r:id="rId2"/>
+    <sheet name="모임그룹관리" sheetId="5" r:id="rId3"/>
+    <sheet name="모임 장소 및 시간 추천" sheetId="6" r:id="rId4"/>
+    <sheet name="추천 모임일정에 대한 피드백" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="161">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,6 +586,11 @@
     <t>TC_16</t>
   </si>
   <si>
+    <t>모임 수정' 버튼 클릭 후, “모임 정보를 수정하시겠습니까?”라는 메시지의
+'취소' 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 수정된 모임 정보를 저장하지 않고 본 유스케이스를 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,7 +605,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SC_18</t>
+  </si>
+  <si>
     <t>AF4. 모임 삭제 취소</t>
+  </si>
+  <si>
+    <t>TC_18</t>
   </si>
   <si>
     <t>모임 삭제' 버튼 클릭 후, “모임을 삭제하시겠습니까?”라는 메시지의
@@ -743,34 +754,6 @@
       </rPr>
       <t>’라는 메세지를 화면상출력</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모임 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF2. 변경 권한 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모임 수정' 버튼 클릭 후, “모임 정보를 수정하시겠습니까?”라는 메시지의 '취소' 버튼 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1445,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1852,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
-  <dimension ref="B3:J14"/>
+  <dimension ref="B3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1908,7 +1891,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -1929,7 +1912,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>111</v>
@@ -1954,7 +1937,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
@@ -1975,7 +1958,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>111</v>
@@ -2000,7 +1983,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>120</v>
@@ -2012,7 +1995,7 @@
         <v>122</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
@@ -2025,7 +2008,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>124</v>
@@ -2034,94 +2017,69 @@
         <v>125</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>161</v>
+        <v>130</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>157</v>
+        <v>133</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B12" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12"/>
+      <c r="F12"/>
+      <c r="J12"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13"/>
       <c r="F13"/>
       <c r="J13"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14"/>
-      <c r="F14"/>
-      <c r="J14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2135,7 +2093,7 @@
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2317,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2429,7 +2387,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
@@ -2445,14 +2403,14 @@
         <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
@@ -2473,7 +2431,7 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2489,14 +2447,14 @@
         <v>101</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
@@ -2517,7 +2475,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
@@ -2533,14 +2491,14 @@
         <v>102</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
@@ -2561,7 +2519,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
@@ -2574,17 +2532,17 @@
         <v>64</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
@@ -2605,7 +2563,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
@@ -2621,14 +2579,14 @@
         <v>104</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
@@ -2649,7 +2607,7 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
@@ -2665,14 +2623,14 @@
         <v>105</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
@@ -2693,7 +2651,7 @@
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
@@ -2709,14 +2667,14 @@
         <v>106</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
@@ -2737,7 +2695,7 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
@@ -2753,14 +2711,14 @@
         <v>107</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
@@ -2808,7 +2766,7 @@
         <v>108</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>91</v>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFA02B-C881-47BF-97DF-D85185F6BAB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E54DEB4-6D79-4498-A61F-D2CDF92715F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,23 @@
     <sheet name="모임 장소 및 시간 추천" sheetId="6" r:id="rId4"/>
     <sheet name="추천 모임일정에 대한 피드백" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="165">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,10 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,9 +549,6 @@
     <t>SC_13</t>
   </si>
   <si>
-    <t>TC_13</t>
-  </si>
-  <si>
     <t>모임 정보 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,18 +556,12 @@
     <t>SC_14</t>
   </si>
   <si>
-    <t>TC_14</t>
-  </si>
-  <si>
     <t>SC_15</t>
   </si>
   <si>
     <t>AF2. 변경 권한 없음</t>
   </si>
   <si>
-    <t>TC_15</t>
-  </si>
-  <si>
     <t>모임장이 아닌 모임원의 Input Data Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,9 +570,6 @@
   </si>
   <si>
     <t>AF3. 모임 수정 취소</t>
-  </si>
-  <si>
-    <t>TC_16</t>
   </si>
   <si>
     <t>모임 수정' 버튼 클릭 후, “모임 정보를 수정하시겠습니까?”라는 메시지의
@@ -598,9 +584,6 @@
     <t>SC_17</t>
   </si>
   <si>
-    <t>TC_17</t>
-  </si>
-  <si>
     <t>모임 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,9 +592,6 @@
   </si>
   <si>
     <t>AF4. 모임 삭제 취소</t>
-  </si>
-  <si>
-    <t>TC_18</t>
   </si>
   <si>
     <t>모임 삭제' 버튼 클릭 후, “모임을 삭제하시겠습니까?”라는 메시지의
@@ -754,6 +734,54 @@
       </rPr>
       <t>’라는 메세지를 화면상출력</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,7 +1269,7 @@
   <dimension ref="B3:H16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1354,25 +1382,43 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1428,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A8" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1587,7 +1633,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>40</v>
@@ -1612,7 +1658,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>40</v>
@@ -1637,7 +1683,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>40</v>
@@ -1657,7 +1703,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -1682,7 +1728,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>44</v>
@@ -1707,10 +1753,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>40</v>
@@ -1732,10 +1778,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>40</v>
@@ -1757,10 +1803,10 @@
         <v>38</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>40</v>
@@ -1780,7 +1826,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>51</v>
@@ -1805,7 +1851,7 @@
         <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>55</v>
@@ -1838,7 +1884,7 @@
   <dimension ref="B3:J13"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1891,182 +1937,182 @@
         <v>61</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="13" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="13" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
@@ -2092,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B30085F-5542-4CF5-BE7C-A3E5981ECF61}">
   <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2140,7 +2186,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>62</v>
@@ -2148,7 +2194,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2275,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2327,398 +2373,398 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
@@ -2736,95 +2782,95 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>64</v>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E54DEB4-6D79-4498-A61F-D2CDF92715F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142BA81-D2E8-440F-87AB-B69823661138}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="203">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,17 +535,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF1. 모임 이름 중복 오류 발생</t>
-  </si>
-  <si>
     <t>기존 모임과 이름이 같은 모임 이름의 Input Data Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘이미 존재하는 모임 이름입니다.라는 메시지를 화면상에 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_13</t>
   </si>
   <si>
@@ -559,17 +552,7 @@
     <t>SC_15</t>
   </si>
   <si>
-    <t>AF2. 변경 권한 없음</t>
-  </si>
-  <si>
-    <t>모임장이 아닌 모임원의 Input Data Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_16</t>
-  </si>
-  <si>
-    <t>AF3. 모임 수정 취소</t>
   </si>
   <si>
     <t>모임 수정' 버튼 클릭 후, “모임 정보를 수정하시겠습니까?”라는 메시지의
@@ -577,10 +560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 수정된 모임 정보를 저장하지 않고 본 유스케이스를 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_17</t>
   </si>
   <si>
@@ -599,10 +578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모임 정보를 그대로 둔 채 본 유스케이스를 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모임 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,8 +695,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TC_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>AF4. 모임 이름 중복 오류 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF1. 존재하지 않는 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF2. 사용자 자신의 아이디 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 아이디를 구성원 추가창에 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 아이디를 구성원 추가창에 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF3. 이미 구성원으로 추가한 아이디 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 모임에 포함된 구성원의 아이디를 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF5. 모임 이름을 기입하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이미 존재하는 모임 이름입니다."라는 메시지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"존재하진 않는 ID입니다."라는 메시지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"본인을 추가할 수 없습니다."라는 메시지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이미 추가된 구성원입니다."라는 메시지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모임 이름을 입력해주세요." 라는 메시지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_19</t>
+  </si>
+  <si>
+    <t>SC_20</t>
+  </si>
+  <si>
+    <t>SC_21</t>
+  </si>
+  <si>
+    <t>SC_22</t>
+  </si>
+  <si>
+    <t>SC_23</t>
+  </si>
+  <si>
+    <t>SC_24</t>
+  </si>
+  <si>
+    <t>SC_25</t>
+  </si>
+  <si>
+    <t>SC_26</t>
+  </si>
+  <si>
+    <t>SC_27</t>
+  </si>
+  <si>
+    <t>SC_28</t>
+  </si>
+  <si>
+    <t>AF6. 모임 구성을 추가하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모임 구성원을 추가해주세요."라는 메시지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 구성원으로 아무런 값을 추가하지 않고 등록을 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 이름을 기입하지 않고 등록을 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임장이 아닌 모임원이 모임 수정 버튼을 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF7. 변경 권한 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF8. 모임 수정 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF9. 모임 이름 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>‘모임장만 접근이 가능합니다</t>
+      <t>"모임장만 접근이 가능합니다"</t>
     </r>
     <r>
       <rPr>
@@ -732,56 +881,35 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>’라는 메세지를 화면상출력</t>
+      <t>라는 메세지를 화면상에 출력</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_23</t>
+    <t>"모임명은 수정할 수 없습니다"라는 메세지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 삭제</t>
+  </si>
+  <si>
+    <t>모임장이 아닌 모임원이 모임 삭제 버튼을 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>기존 모임 정보 유지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +917,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +958,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -917,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,9 +1095,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -985,6 +1118,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,13 +1414,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
     <col min="4" max="4" width="17.19921875" customWidth="1"/>
-    <col min="5" max="5" width="36.09765625" customWidth="1"/>
-    <col min="6" max="6" width="35.59765625" customWidth="1"/>
+    <col min="5" max="5" width="36.19921875" customWidth="1"/>
+    <col min="6" max="6" width="35.69921875" customWidth="1"/>
     <col min="7" max="7" width="32.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1389,7 +1531,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1397,13 +1539,13 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1411,13 +1553,13 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1474,20 +1616,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
     <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1703,7 +1844,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -1728,7 +1869,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>44</v>
@@ -1826,7 +1967,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>51</v>
@@ -1851,7 +1992,7 @@
         <v>54</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>55</v>
@@ -1881,22 +2022,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
-  <dimension ref="B3:J13"/>
+  <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.69921875" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
     <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1937,7 +2077,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
@@ -1950,7 +2090,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
         <v>108</v>
       </c>
@@ -1958,174 +2098,424 @@
         <v>61</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>111</v>
+      <c r="G5" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>165</v>
+      </c>
       <c r="F6" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
-        <v>113</v>
+        <v>151</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>111</v>
+        <v>152</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>170</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>121</v>
+        <v>154</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="16"/>
+        <v>121</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>186</v>
+      </c>
       <c r="F10" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="16" t="s">
-        <v>123</v>
+        <v>155</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>125</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E11" s="23"/>
       <c r="F11" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>127</v>
+        <v>156</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12"/>
-      <c r="F12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13"/>
-      <c r="F13"/>
-      <c r="J13"/>
+    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:10" ht="55.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B20" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B21" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22"/>
+      <c r="F22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23"/>
+      <c r="F23"/>
+      <c r="J23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2138,20 +2528,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B30085F-5542-4CF5-BE7C-A3E5981ECF61}">
   <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.59765625" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
     <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2186,7 +2575,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>62</v>
@@ -2194,7 +2583,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2325,17 +2714,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.69921875" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="40.19921875" customWidth="1"/>
     <col min="5" max="5" width="31.296875" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.69921875" customWidth="1"/>
-    <col min="8" max="8" width="36.3984375" customWidth="1"/>
-    <col min="9" max="9" width="27.09765625" customWidth="1"/>
+    <col min="8" max="8" width="36.296875" customWidth="1"/>
+    <col min="9" max="9" width="27.19921875" customWidth="1"/>
     <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2433,7 +2822,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
@@ -2449,14 +2838,14 @@
         <v>98</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
@@ -2477,7 +2866,7 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2493,14 +2882,14 @@
         <v>99</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
@@ -2521,7 +2910,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
@@ -2537,14 +2926,14 @@
         <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
@@ -2565,7 +2954,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
@@ -2578,17 +2967,17 @@
         <v>64</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
@@ -2609,7 +2998,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
@@ -2625,14 +3014,14 @@
         <v>102</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
@@ -2653,7 +3042,7 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
@@ -2669,14 +3058,14 @@
         <v>103</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
@@ -2697,7 +3086,7 @@
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
@@ -2713,14 +3102,14 @@
         <v>104</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
@@ -2741,7 +3130,7 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
@@ -2757,14 +3146,14 @@
         <v>105</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
@@ -2812,7 +3201,7 @@
         <v>106</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>89</v>
@@ -2862,7 +3251,7 @@
         <v>94</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="19" t="s">
         <v>84</v>
       </c>
       <c r="I26" s="5"/>
@@ -2880,7 +3269,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="9"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="21"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
@@ -2891,7 +3280,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="22"/>
+      <c r="I28" s="21"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142BA81-D2E8-440F-87AB-B69823661138}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55375F90-4F86-4BC1-AE58-17360E3D2F70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="2760" windowWidth="20310" windowHeight="16110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="216">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -791,10 +791,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"존재하진 않는 ID입니다."라는 메시지를 화면상에 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"본인을 추가할 수 없습니다."라는 메시지를 화면상에 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -886,10 +882,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"모임명은 수정할 수 없습니다"라는 메세지를 화면상에 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모임 삭제</t>
   </si>
   <si>
@@ -907,6 +899,66 @@
   </si>
   <si>
     <t>TC_32</t>
+  </si>
+  <si>
+    <t>기존 모임 정보 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 ID입니다' 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"존재하지 않는 ID입니다."라는 메시지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인을 추가할 수 없습니다' 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 추가된 구성원입니다' 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 존재하는 모임명입니다' 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 이름을 입력해주세요' 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 구성원을 추가해주세요' 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 정보 유지 및 입력 flow 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 이름을 변경하고 모임 정보 수정 버튼을 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임명은 변경할 수 없습니다' 메시지 출력 후 모임명 원상복구 및 입력 flow로 회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모임명은 변경할 수 없습니다"라는 메세지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기존 모임 정보 유지</t>
@@ -1053,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,6 +1178,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,17 +1469,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" customWidth="1"/>
-    <col min="5" max="5" width="36.19921875" customWidth="1"/>
-    <col min="6" max="6" width="35.69921875" customWidth="1"/>
-    <col min="7" max="7" width="32.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
+    <col min="7" max="7" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1444,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1467,7 +1522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1481,7 +1536,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1495,7 +1550,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1509,7 +1564,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1523,7 +1578,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>60</v>
       </c>
@@ -1537,7 +1592,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>110</v>
       </c>
@@ -1551,7 +1606,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>116</v>
       </c>
@@ -1565,7 +1620,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1573,7 +1628,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1581,7 +1636,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1589,7 +1644,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1597,7 +1652,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1620,19 +1675,19 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1684,7 +1739,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1709,7 +1764,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1732,7 +1787,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1757,7 +1812,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
@@ -1782,7 +1837,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
@@ -1807,7 +1862,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1832,7 +1887,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1855,7 +1910,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
@@ -1880,7 +1935,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
@@ -1905,7 +1960,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1930,7 +1985,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
@@ -1955,7 +2010,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1978,7 +2033,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
@@ -2003,12 +2058,12 @@
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="F18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="F19"/>
       <c r="J19"/>
@@ -2025,22 +2080,22 @@
   <dimension ref="B3:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
-    <col min="8" max="8" width="39.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="39.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>60</v>
       </c>
@@ -2087,10 +2142,14 @@
       <c r="H4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I4" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>108</v>
       </c>
@@ -2110,12 +2169,16 @@
         <v>166</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>110</v>
       </c>
@@ -2135,12 +2198,16 @@
         <v>167</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>112</v>
       </c>
@@ -2160,12 +2227,16 @@
         <v>169</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>113</v>
       </c>
@@ -2187,10 +2258,14 @@
       <c r="H8" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I8" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>114</v>
       </c>
@@ -2207,15 +2282,19 @@
         <v>154</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>116</v>
       </c>
@@ -2226,21 +2305,25 @@
         <v>121</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>155</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>118</v>
       </c>
@@ -2258,12 +2341,16 @@
       <c r="H11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="I11" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>61</v>
@@ -2281,14 +2368,18 @@
         <v>166</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>203</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>61</v>
@@ -2306,14 +2397,18 @@
         <v>167</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>61</v>
@@ -2331,14 +2426,18 @@
         <v>169</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>61</v>
@@ -2347,23 +2446,27 @@
         <v>122</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>160</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>61</v>
@@ -2372,23 +2475,23 @@
         <v>122</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>161</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="2:10" ht="55.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>61</v>
@@ -2397,7 +2500,7 @@
         <v>122</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>162</v>
@@ -2406,14 +2509,18 @@
         <v>115</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>61</v>
@@ -2422,33 +2529,37 @@
         <v>122</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="s">
@@ -2457,62 +2568,66 @@
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>120</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="F22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="F23"/>
       <c r="J23"/>
@@ -2532,19 +2647,19 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2573,7 +2688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>149</v>
       </c>
@@ -2590,7 +2705,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2601,7 +2716,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2612,7 +2727,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2623,7 +2738,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2634,7 +2749,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2645,7 +2760,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2656,7 +2771,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2667,7 +2782,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2678,7 +2793,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2689,12 +2804,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="F14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="F15"/>
       <c r="J15"/>
@@ -2714,24 +2829,24 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="40.19921875" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
-    <col min="8" max="8" width="36.296875" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.25" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="36.25" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2760,7 +2875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
@@ -2783,7 +2898,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
@@ -2806,7 +2921,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>80</v>
       </c>
@@ -2827,7 +2942,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>80</v>
       </c>
@@ -2850,7 +2965,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>80</v>
       </c>
@@ -2871,7 +2986,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>80</v>
       </c>
@@ -2894,7 +3009,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>80</v>
       </c>
@@ -2915,7 +3030,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>80</v>
       </c>
@@ -2938,7 +3053,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>80</v>
       </c>
@@ -2959,7 +3074,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>80</v>
       </c>
@@ -2982,7 +3097,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>80</v>
       </c>
@@ -3003,7 +3118,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>80</v>
       </c>
@@ -3026,7 +3141,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>80</v>
       </c>
@@ -3047,7 +3162,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>80</v>
       </c>
@@ -3070,7 +3185,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>80</v>
       </c>
@@ -3091,7 +3206,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>80</v>
       </c>
@@ -3114,7 +3229,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>80</v>
       </c>
@@ -3135,7 +3250,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>80</v>
       </c>
@@ -3158,7 +3273,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3169,7 +3284,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>85</v>
       </c>
@@ -3190,7 +3305,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>88</v>
       </c>
@@ -3213,7 +3328,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>90</v>
       </c>
@@ -3234,7 +3349,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>93</v>
       </c>
@@ -3257,7 +3372,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>95</v>
       </c>
@@ -3272,7 +3387,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -3283,11 +3398,11 @@
       <c r="I28" s="21"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="F30"/>
     </row>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55375F90-4F86-4BC1-AE58-17360E3D2F70}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE4BFAE-B18A-49AC-802C-334471775761}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="2760" windowWidth="20310" windowHeight="16110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="3390" windowWidth="20310" windowHeight="16110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="218">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,6 +962,14 @@
   </si>
   <si>
     <t>기존 모임 정보 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 모임 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2080,7 +2088,7 @@
   <dimension ref="B3:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2565,8 +2573,12 @@
       <c r="H19" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE4BFAE-B18A-49AC-802C-334471775761}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46677BF-5CCE-4F61-A3AE-0C3A6D5E0CCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3390" windowWidth="20310" windowHeight="16110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="234">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,14 +707,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_17</t>
   </si>
   <si>
@@ -970,6 +958,66 @@
   </si>
   <si>
     <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_03</t>
+  </si>
+  <si>
+    <t>개인일정관리</t>
+  </si>
+  <si>
+    <t>어플 내 일정 등록</t>
+  </si>
+  <si>
+    <t>PersonalScheduleAdditionForm.addSchedule( )</t>
+  </si>
+  <si>
+    <t>PersonalScheduleController.addSchedule( )</t>
+  </si>
+  <si>
+    <t>PersonalSchedule.save( )</t>
+  </si>
+  <si>
+    <t>SC_06</t>
+  </si>
+  <si>
+    <t>일정 수정</t>
+  </si>
+  <si>
+    <t>PersonalScheduleModificationForm.modifySchedule( )</t>
+  </si>
+  <si>
+    <t>PersonalScheduleController.modifySchedule( )</t>
+  </si>
+  <si>
+    <t>PersonalSchedule.modify( )</t>
+  </si>
+  <si>
+    <t>SC_09</t>
+  </si>
+  <si>
+    <t>일정 삭제</t>
+  </si>
+  <si>
+    <t>PersonalScheduleModificationForm.deleteSchedule( )</t>
+  </si>
+  <si>
+    <t>PersonalScheduleController.deleteSchedule( )</t>
+  </si>
+  <si>
+    <t>PersonalSchedule.delete( )</t>
+  </si>
+  <si>
+    <t>SC_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1474,20 +1522,20 @@
   <dimension ref="B3:H16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="35.75" customWidth="1"/>
-    <col min="7" max="7" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" customWidth="1"/>
+    <col min="5" max="5" width="46.09765625" customWidth="1"/>
+    <col min="6" max="6" width="43.5" customWidth="1"/>
+    <col min="7" max="7" width="32.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1527,10 +1575,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1544,91 +1592,109 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="13" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1636,7 +1702,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1644,7 +1710,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1652,7 +1718,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1660,7 +1726,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1679,23 +1745,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1724,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1813,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1764,7 +1830,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>33</v>
@@ -1772,7 +1838,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1790,12 +1856,12 @@
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1815,12 +1881,12 @@
         <v>44</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
@@ -1837,7 +1903,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>40</v>
@@ -1845,7 +1911,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
@@ -1862,7 +1928,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>40</v>
@@ -1870,7 +1936,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1887,7 +1953,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>40</v>
@@ -1895,7 +1961,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1907,18 +1973,18 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
@@ -1932,18 +1998,18 @@
         <v>35</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
@@ -1957,10 +2023,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>40</v>
@@ -1968,7 +2034,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1982,10 +2048,10 @@
         <v>38</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>40</v>
@@ -1993,7 +2059,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
@@ -2007,10 +2073,10 @@
         <v>38</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>40</v>
@@ -2018,7 +2084,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
@@ -2030,20 +2096,20 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>20</v>
@@ -2052,26 +2118,26 @@
         <v>26</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18"/>
       <c r="F18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19"/>
       <c r="F19"/>
       <c r="J19"/>
@@ -2087,23 +2153,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
   <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A8" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="39.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2132,514 +2198,514 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="C5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="J6" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="H8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="C15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="G15" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B16" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="C16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="H15" s="24" t="s">
+      <c r="G16" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="H16" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="2:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>194</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B20" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B21" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="H21" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22"/>
       <c r="F22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23"/>
       <c r="F23"/>
       <c r="J23"/>
@@ -2655,23 +2721,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B30085F-5542-4CF5-BE7C-A3E5981ECF61}">
   <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2700,24 +2766,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2728,7 +2794,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2739,7 +2805,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2750,7 +2816,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2761,7 +2827,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2772,7 +2838,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2783,7 +2849,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2794,7 +2860,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2805,7 +2871,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2816,12 +2882,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14"/>
       <c r="F14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15"/>
       <c r="F15"/>
       <c r="J15"/>
@@ -2841,24 +2907,24 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="36.25" customWidth="1"/>
-    <col min="9" max="9" width="27.25" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" customWidth="1"/>
+    <col min="5" max="5" width="31.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="8" max="8" width="36.19921875" customWidth="1"/>
+    <col min="9" max="9" width="27.19921875" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2887,405 +2953,405 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3296,100 +3362,100 @@
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -3399,7 +3465,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -3410,11 +3476,11 @@
       <c r="I28" s="21"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30"/>
       <c r="F30"/>
     </row>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46677BF-5CCE-4F61-A3AE-0C3A6D5E0CCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ADCC52-3836-4FA3-A5F1-3223BC481374}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="3585" windowWidth="20310" windowHeight="16110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="242">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Register for Courses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,23 +94,6 @@
   </si>
   <si>
     <t>Basic Flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create a schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterForCoursesForm.createSchedule( )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegistrationController.createSchedule( )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schedule.createSchedule( )
-Student.addSchedule( )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//예시 모두 작성 후 삭제 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC_31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,10 +868,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모임 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>존재하지 않는 ID입니다' 메시지 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -970,42 +941,18 @@
     <t>어플 내 일정 등록</t>
   </si>
   <si>
-    <t>PersonalScheduleAdditionForm.addSchedule( )</t>
-  </si>
-  <si>
-    <t>PersonalScheduleController.addSchedule( )</t>
-  </si>
-  <si>
-    <t>PersonalSchedule.save( )</t>
-  </si>
-  <si>
     <t>SC_06</t>
   </si>
   <si>
     <t>일정 수정</t>
   </si>
   <si>
-    <t>PersonalScheduleModificationForm.modifySchedule( )</t>
-  </si>
-  <si>
-    <t>PersonalScheduleController.modifySchedule( )</t>
-  </si>
-  <si>
-    <t>PersonalSchedule.modify( )</t>
-  </si>
-  <si>
     <t>SC_09</t>
   </si>
   <si>
     <t>일정 삭제</t>
   </si>
   <si>
-    <t>PersonalScheduleModificationForm.deleteSchedule( )</t>
-  </si>
-  <si>
-    <t>PersonalScheduleController.deleteSchedule( )</t>
-  </si>
-  <si>
     <t>PersonalSchedule.delete( )</t>
   </si>
   <si>
@@ -1018,6 +965,98 @@
   </si>
   <si>
     <t>SC_29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalScheduleModificationForm.modifyButtonClicked( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalScheduleController.ModifySchedule( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalScheduleController.DeleteSchedule( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalScheduleModificationForm.deleteButtonClicked( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalSchedule.saveThis( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalSchedule.delete( ) / PersonalSchedule.saveThis()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalScheduleController.AddSchedule( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalScheduleAdditionForm.saveButtonClicked( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalCalendarFragment.onOptionsItemselected() / EveryTimePatch.run()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalScheduleController.EveryTimeSave()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupAdditionForm.saveResult.setOnClickListener()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupManagementController.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupModificationFrom.saveResult.setOnClickListner()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupListFragment.removeItem()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupManagementController.DelUserGroup()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 일정 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 일정 정보 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 일정 정보 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 추가되나 모임 목록상 오류가 생김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 개인 일정 생성되나 달력 갱신에 오류가 생김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임장만 접근이 가능합니다' 메시지 출력 후 모임 목록 화면 유지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,7 +1125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1107,17 +1146,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1161,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1182,16 +1210,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1218,10 +1243,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,23 +1544,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H16"/>
+  <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" customWidth="1"/>
-    <col min="5" max="5" width="46.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="46.125" customWidth="1"/>
     <col min="6" max="6" width="43.5" customWidth="1"/>
-    <col min="7" max="7" width="32.69921875" customWidth="1"/>
+    <col min="7" max="7" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1568,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -1555,146 +1580,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="C9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>116</v>
-      </c>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1702,7 +1728,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1710,7 +1736,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1718,21 +1744,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1745,23 +1763,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1790,354 +1808,370 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>50</v>
+        <v>140</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>54</v>
+        <v>141</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="F18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="F19"/>
       <c r="J19"/>
@@ -2153,23 +2187,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
   <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
-    <col min="8" max="8" width="39.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="39.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2198,514 +2232,522 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="C8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J10" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="24" t="s">
+    <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B10" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B12" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B13" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B14" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="2:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B20" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B21" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="F22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="F23"/>
       <c r="J23"/>
@@ -2721,23 +2763,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B30085F-5542-4CF5-BE7C-A3E5981ECF61}">
   <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2766,24 +2808,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2794,7 +2836,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2805,7 +2847,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2816,7 +2858,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2827,7 +2869,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2838,7 +2880,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2849,7 +2891,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2860,34 +2902,34 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="F14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="F15"/>
       <c r="J15"/>
@@ -2907,24 +2949,24 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="40.19921875" customWidth="1"/>
-    <col min="5" max="5" width="31.19921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
-    <col min="8" max="8" width="36.19921875" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.25" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="36.25" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2953,405 +2995,405 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="9" t="s">
-        <v>78</v>
+      <c r="H4" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="9" t="s">
-        <v>95</v>
+      <c r="H5" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3362,125 +3404,125 @@
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="19" t="s">
-        <v>83</v>
+      <c r="H26" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="21"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="F30"/>
     </row>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ADCC52-3836-4FA3-A5F1-3223BC481374}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7785EDEF-B46A-4284-867D-621D69F2A605}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="3585" windowWidth="20310" windowHeight="16110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15510" yWindow="2340" windowWidth="20310" windowHeight="16110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="229">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추천 모임일정에 대한 피드백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,22 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피드백 생성(좋음,나쁨), 겹치는 일정 없는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피드백 생성(나쁨,좋음), 겹치는 일정 있는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피드백 생성(나쁨,좋음), 겹치는 일정 없는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피드백 생성(나쁨,나쁨), 겹치는 일정 있는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피드백 생성(나쁨,나쁨), 겹치는 일정 없는 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,80 +542,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피드백 생성(좋음,나쁨), 겹치는 일정없는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일정의 조정 가중치 최소치, 장소 우선순위
  증가하며 새로운 피드백 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시간대 가중치 증가, 장소 우선순위
- 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시간대 가중치 최대치, 장소 우선순위
  증가하며 새로운 피드백 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일정의 조정 가중치 감소, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일정의 조정 가중치 최소치, 장소 우선순위 
 감소하며 새로운 피드백 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시간대 가중치 증가, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 최대치, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 증가, 장소 우선순위 
-증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 최대치, 장소 우선순위
- 증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 감소, 장소 우선순위 
-증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 최소치, 장소 우선순위 
-증가하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 증가, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정의 조정 가중치 최대치, 장소 우선순위
- 감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간대 가중치 감소, 장소 우선순위 
-감소하며 새로운 피드백 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시간대 가중치 최소치, 장소 우선순위 
 감소하며 새로운 피드백 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,11 +573,6 @@
   </si>
   <si>
     <t>AF4. 가중치 범위를 벗어난 경우
-(일정 조정 가중치 최대치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF4. 가중치 범위를 벗어난 경우
 (시간대 가중치 최소치)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,10 +591,6 @@
   </si>
   <si>
     <t>TC_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1012,10 +924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GroupManagementController.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupModificationFrom.saveResult.setOnClickListner()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,6 +965,34 @@
   </si>
   <si>
     <t>모임장만 접근이 가능합니다' 메시지 출력 후 모임 목록 화면 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group.saveGroupInfo() / Group.saveGroupMember()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupManagementController.saveGroup()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group.delGroup()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 일정 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 어플리케이션에 등록된 일정이 없습니다' 메시지 출력 후 유스케이스 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기입하지 않은 정보가 존재합니다' 메시지 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1263,6 +1199,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1546,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1591,73 +1530,73 @@
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -1668,49 +1607,57 @@
         <v>55</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -1761,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:J19"/>
+  <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1822,14 +1769,16 @@
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -1853,8 +1802,12 @@
       <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1877,10 +1830,10 @@
         <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -1925,13 +1878,17 @@
         <v>34</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
@@ -1950,13 +1907,17 @@
         <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
@@ -1975,13 +1936,17 @@
         <v>41</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -1995,7 +1960,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>13</v>
@@ -2004,10 +1969,10 @@
         <v>46</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
@@ -2024,7 +1989,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>39</v>
@@ -2052,129 +2017,83 @@
         <v>44</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="F18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-      <c r="F19"/>
-      <c r="J19"/>
+      <c r="I15" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="F16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="F17"/>
+      <c r="J17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2187,7 +2106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
   <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -2240,506 +2159,506 @@
         <v>55</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="J17" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E18" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>202</v>
-      </c>
       <c r="H18" s="23" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="12" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -2810,7 +2729,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>56</v>
@@ -2818,7 +2737,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2946,7 +2865,7 @@
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2997,398 +2916,280 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>92</v>
-      </c>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>93</v>
-      </c>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6" t="s">
-        <v>121</v>
-      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>94</v>
-      </c>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>76</v>
-      </c>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>95</v>
-      </c>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>76</v>
-      </c>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>96</v>
-      </c>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>76</v>
-      </c>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>97</v>
-      </c>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>74</v>
-      </c>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="6" t="s">
-        <v>130</v>
-      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>98</v>
-      </c>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
@@ -3406,98 +3207,98 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7785EDEF-B46A-4284-867D-621D69F2A605}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8BC02-1850-41B6-95FD-7028A55DF74C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15510" yWindow="2340" windowWidth="20310" windowHeight="16110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="228">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,11 +146,6 @@
   </si>
   <si>
     <t>TC_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“외부 어플리케이션에 등록된 
-일정이 없습니다”라는 메시지를 화면상에 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -770,12 +765,6 @@
     <t>TC_30</t>
   </si>
   <si>
-    <t>TC_31</t>
-  </si>
-  <si>
-    <t>TC_32</t>
-  </si>
-  <si>
     <t>기존 모임 정보 유지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -912,10 +901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PersonalCalendarFragment.onOptionsItemselected() / EveryTimePatch.run()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PersonalScheduleController.EveryTimeSave()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -960,10 +945,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새로운 개인 일정 생성되나 달력 갱신에 오류가 생김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모임장만 접근이 가능합니다' 메시지 출력 후 모임 목록 화면 유지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -988,11 +969,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>외부 어플리케이션에 등록된 일정이 없습니다' 메시지 출력 후 유스케이스 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기입하지 않은 정보가 존재합니다' 메시지 출력</t>
+    <t>"외부 어플리케이션에 
+등록된 일정이 없습니다" 메시지 출력 후 유스케이스 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 개인 일정 생성되나 
+달력 갱신에 오류가 생김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기입하지 않은 정보가 존재
+합니다" 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalCalendarFragment.onOptionsItemselected() 
+/ EveryTimePatch.run()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1199,9 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,221 +1481,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G15"/>
+  <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="46.125" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
+    <col min="5" max="5" width="46.09765625" customWidth="1"/>
     <col min="6" max="6" width="43.5" customWidth="1"/>
-    <col min="7" max="7" width="32.75" customWidth="1"/>
+    <col min="7" max="7" width="46.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G10" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1710,77 +1741,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.59765625" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1797,46 +1828,46 @@
         <v>27</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1847,23 +1878,23 @@
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -1872,27 +1903,27 @@
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>228</v>
+      <c r="I8" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
@@ -1901,27 +1932,27 @@
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>228</v>
+        <v>34</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
@@ -1930,54 +1961,54 @@
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B12" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
@@ -1986,23 +2017,23 @@
         <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -2011,27 +2042,27 @@
         <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>228</v>
+        <v>34</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
@@ -2041,24 +2072,24 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
@@ -2067,30 +2098,30 @@
         <v>21</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16"/>
       <c r="F16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17"/>
       <c r="F17"/>
       <c r="J17"/>
@@ -2106,23 +2137,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
   <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A8" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="39.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="8" max="8" width="39.19921875" customWidth="1"/>
+    <col min="9" max="9" width="35.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2151,522 +2182,522 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="12" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="H8" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B13" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="H18" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="25" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="21" t="s">
+      <c r="J18" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="12" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B21" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="21" t="s">
+      <c r="C21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="I20" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>166</v>
-      </c>
       <c r="E21" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="H21" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22"/>
       <c r="F22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23"/>
       <c r="F23"/>
       <c r="J23"/>
@@ -2683,22 +2714,22 @@
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2727,24 +2758,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2755,7 +2786,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2766,7 +2797,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2777,7 +2808,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2788,7 +2819,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2799,7 +2830,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2810,7 +2841,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2821,7 +2852,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2832,7 +2863,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2843,12 +2874,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14"/>
       <c r="F14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15"/>
       <c r="F15"/>
       <c r="J15"/>
@@ -2864,28 +2895,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="36.25" customWidth="1"/>
-    <col min="9" max="9" width="27.25" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" customWidth="1"/>
+    <col min="5" max="5" width="31.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="8" max="8" width="36.19921875" customWidth="1"/>
+    <col min="9" max="9" width="27.19921875" customWidth="1"/>
+    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2914,97 +2945,97 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -3015,30 +3046,30 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -3049,30 +3080,30 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -3083,7 +3114,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -3094,7 +3125,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3105,7 +3136,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3116,7 +3147,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3127,7 +3158,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3138,7 +3169,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3149,7 +3180,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3160,7 +3191,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -3171,30 +3202,30 @@
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3205,100 +3236,100 @@
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -3308,7 +3339,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -3319,11 +3350,11 @@
       <c r="I28" s="20"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30"/>
       <c r="F30"/>
     </row>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8BC02-1850-41B6-95FD-7028A55DF74C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAF40DD-53CA-4359-9A19-661025DD1206}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="2475" windowWidth="20310" windowHeight="16110" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="234">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,14 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Happy Input Data Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Basic Flow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,47 +101,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일정 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일정 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개인 일정에 외부 일정 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF1. 해당 어플리케이션 내 등록된 일정이 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,20 +123,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF3. 필수 정보를 
 모두 기입하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,42 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 일정과 중복된 시간대를 가진 일정 포함한 Input Data Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제' 버튼 클릭 후, “해당 일정을 
 삭제하겠습니까?”라는 메시지의
 '삭제 확인' 버튼 선택</t>
@@ -296,21 +212,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>외부 일정을 포함하지 않은 Input 
-Data Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“해당 시간대에 이미 등록된 
 일정이 존재합니다”라는
 메시지를 화면상에 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모임그룹관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,22 +227,6 @@
   </si>
   <si>
     <t>추천 모임일정에 대한 피드백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF1. 진행한 모임 일정이 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,32 +360,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모임에 새로운 모임 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기존 모임과 이름이 같은 모임 이름의 Input Data Set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_13</t>
-  </si>
-  <si>
     <t>모임 정보 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_14</t>
-  </si>
-  <si>
-    <t>SC_15</t>
-  </si>
-  <si>
-    <t>SC_16</t>
   </si>
   <si>
     <t>모임 수정' 버튼 클릭 후, “모임 정보를 수정하시겠습니까?”라는 메시지의
@@ -506,14 +373,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_17</t>
-  </si>
-  <si>
     <t>모임 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_18</t>
   </si>
   <si>
     <t>AF4. 모임 삭제 취소</t>
@@ -577,54 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t>TC_22</t>
-  </si>
-  <si>
-    <t>TC_23</t>
-  </si>
-  <si>
-    <t>TC_24</t>
-  </si>
-  <si>
-    <t>TC_25</t>
-  </si>
-  <si>
-    <t>TC_26</t>
-  </si>
-  <si>
-    <t>TC_27</t>
-  </si>
-  <si>
-    <t>TC_28</t>
-  </si>
-  <si>
     <t>AF4. 모임 이름 중복 오류 발생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,36 +484,6 @@
   <si>
     <t>"모임 이름을 입력해주세요." 라는 메시지를 화면상에 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_19</t>
-  </si>
-  <si>
-    <t>SC_20</t>
-  </si>
-  <si>
-    <t>SC_21</t>
-  </si>
-  <si>
-    <t>SC_22</t>
-  </si>
-  <si>
-    <t>SC_23</t>
-  </si>
-  <si>
-    <t>SC_24</t>
-  </si>
-  <si>
-    <t>SC_25</t>
-  </si>
-  <si>
-    <t>SC_26</t>
-  </si>
-  <si>
-    <t>SC_27</t>
-  </si>
-  <si>
-    <t>SC_28</t>
   </si>
   <si>
     <t>AF6. 모임 구성을 추가하지 않음</t>
@@ -759,12 +542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_29</t>
-  </si>
-  <si>
-    <t>TC_30</t>
-  </si>
-  <si>
     <t>기존 모임 정보 유지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,40 +610,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC_03</t>
-  </si>
-  <si>
     <t>개인일정관리</t>
   </si>
   <si>
     <t>어플 내 일정 등록</t>
   </si>
   <si>
-    <t>SC_06</t>
-  </si>
-  <si>
     <t>일정 수정</t>
   </si>
   <si>
-    <t>SC_09</t>
-  </si>
-  <si>
     <t>일정 삭제</t>
   </si>
   <si>
     <t>PersonalSchedule.delete( )</t>
-  </si>
-  <si>
-    <t>SC_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PersonalScheduleModificationForm.modifyButtonClicked( )</t>
@@ -984,16 +740,317 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PersonalCalendarFragment.onOptionsItemselected() 
 / EveryTimePatch.run()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 일정과 중복된 시간대를 가진 일정 포함한 Input Data Set(시작 시간이 기존 일정 끝시간보다 이른 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 일정과 중복된 시간대를 가진 일정 포함한 Input Data Set(끝시간이 기존 일정 시작시간보다 늦는 경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 시간대에 이미 등록된 일정이 존재합니다' 메시지 출력 후 입력 화면 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복되지 않는 모임 이름 입력, 자신을 제외한 존재하는 회원 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 모임 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 이름 입력, 중복되지 않는 시간대 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에브리타임 ID/PW 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 삭제' 버튼 클릭 후, “모임을 삭제하시겠습니까?”라는 메시지의
+'확인' 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_303</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1200,6 +1257,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,21 +1544,21 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" customWidth="1"/>
-    <col min="5" max="5" width="46.09765625" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="46.125" customWidth="1"/>
     <col min="6" max="6" width="43.5" customWidth="1"/>
-    <col min="7" max="7" width="46.796875" customWidth="1"/>
+    <col min="7" max="7" width="46.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
@@ -1518,147 +1578,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1666,7 +1726,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1674,7 +1734,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1682,7 +1742,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1690,7 +1750,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1698,7 +1758,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1706,7 +1766,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1714,7 +1774,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1722,7 +1782,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1739,25 +1799,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:J17"/>
+  <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="27.59765625" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1786,345 +1846,413 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>51</v>
+        <v>161</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16"/>
-      <c r="F16"/>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17"/>
-      <c r="F17"/>
-      <c r="J17"/>
+      <c r="I17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="F18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="F19"/>
+      <c r="J19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2137,23 +2265,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
   <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
-    <col min="8" max="8" width="39.19921875" customWidth="1"/>
-    <col min="9" max="9" width="35.796875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="39.25" customWidth="1"/>
+    <col min="9" max="9" width="35.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2182,522 +2310,528 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="H4" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
+      <c r="I9" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="12" t="s">
+      <c r="F10" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="H10" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>157</v>
-      </c>
       <c r="I10" s="25" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="H11" s="13" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B13" s="12" t="s">
+      <c r="J13" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B14" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="23" t="s">
+      <c r="J16" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B16" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="G17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>163</v>
-      </c>
       <c r="F18" s="12" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="14"/>
+        <v>175</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="H19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B20" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>165</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="I21" s="13" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22"/>
       <c r="F22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23"/>
       <c r="F23"/>
       <c r="J23"/>
@@ -2714,22 +2848,22 @@
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2758,24 +2892,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2786,7 +2920,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2797,7 +2931,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2808,7 +2942,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2819,7 +2953,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2830,7 +2964,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2841,7 +2975,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2852,7 +2986,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2863,7 +2997,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2874,12 +3008,12 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="F14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="F15"/>
       <c r="J15"/>
@@ -2895,28 +3029,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="40.19921875" customWidth="1"/>
-    <col min="5" max="5" width="31.19921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" customWidth="1"/>
-    <col min="8" max="8" width="36.19921875" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.25" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="36.25" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2945,97 +3079,97 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="8" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -3046,30 +3180,30 @@
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -3080,30 +3214,30 @@
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -3114,7 +3248,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -3125,7 +3259,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3136,7 +3270,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3147,7 +3281,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3158,7 +3292,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3169,7 +3303,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3180,7 +3314,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -3191,7 +3325,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -3202,30 +3336,30 @@
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3236,100 +3370,100 @@
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="18" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -3339,7 +3473,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -3350,11 +3484,11 @@
       <c r="I28" s="20"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="F30"/>
     </row>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAF40DD-53CA-4359-9A19-661025DD1206}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CCEFD5-D5F9-42B8-95E6-8F549CDF52FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2475" windowWidth="20310" windowHeight="16110" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="318">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,22 +248,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BF1. 모임 내역 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AF1. 진행한 모임 일정이 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TC_32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행한 일정이 없습니다' 메시지를 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +265,6 @@
   </si>
   <si>
     <t>AF2. 시간/장소 피드백이 모두 '보통'인 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1051,6 +1035,623 @@
   </si>
   <si>
     <t>SC_303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 내역 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 일정 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 일정명, 모임 활동 계획, 모임 일정 기간 및 예상 모임 시간 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 모임 일정 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_207</t>
+  </si>
+  <si>
+    <t>TC_208</t>
+  </si>
+  <si>
+    <t>TC_209</t>
+  </si>
+  <si>
+    <t>TC_210</t>
+  </si>
+  <si>
+    <t>TC_211</t>
+  </si>
+  <si>
+    <t>TC_212</t>
+  </si>
+  <si>
+    <t>TC_213</t>
+  </si>
+  <si>
+    <t>TC_214</t>
+  </si>
+  <si>
+    <t>모임 일정명, 모임 활동 계획, 모임 일정 기간 및 예상 모임 시간 중 하나라도 입력 안 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF1. 일정 등록 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">입력된 일정 정보 삭제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF2. 추천 진행중인 일정 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“추천중인 일정이 있습니다” 라는 메시지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정을 등록하시겠습니까' 메시지에 취소 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 진행중인 다른 일정이 있는 경우에 확인 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 추천 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임장이 추천 생성 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF3. 모임장이 추천 생성을 하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모임장이 아직 추천 생성을 하지 않았습니다"라는 메세지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임장이 추천을 아직 생성하지 않은 경우에 모임장이 아닌 모임원이 추천 생성 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 시간 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 시간 추천 목록 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 선택된 시간이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면상에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 시간 목록 중 하나를 선택 후 등록 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 시간 목록 중 하나를 선택하지 않고 등록 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 장소 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 장소가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메시지를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면상에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AF5. 선택된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 장소가 없음</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 결과 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임장이 최종 장소와 시간 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 일정명, 확정된 시간 및 장소를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 결과 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 추천에 대한 우선순위 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 순위의 시간대와 겹치는 일정이 있었던 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 일정의 조정 가능 정도를 1만큼 낮춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 순위의 시간대와 겹치는 일정이 있는 경우와 없는 경우 모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 시간대의 가중치를 0.1 만큼 낮춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 장소 추천에서 한 번 이상 추천 1순위보다 낮은 순위(2, 3, 4, 5)를 골랐고, 다음 번 장소 추천 시에 그 두 장소가 같이 추천 목록에 나타나고 선택한 장소가 추천해준 장소보다 추천 순위가 낮게 나타나는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 장소의 추천 순위를 바꾸어서 제시함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC-310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_314</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +1784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1259,6 +1860,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1547,18 +2172,18 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="46.125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.08203125" customWidth="1"/>
     <col min="6" max="6" width="43.5" customWidth="1"/>
     <col min="7" max="7" width="46.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1578,9 +2203,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="34" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
@@ -1589,136 +2214,136 @@
         <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1726,7 +2351,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1734,7 +2359,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1742,7 +2367,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1750,7 +2375,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1758,7 +2383,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1766,7 +2391,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1774,7 +2399,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1782,7 +2407,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1802,35 +2427,35 @@
   <dimension ref="B3:J19"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="29" customWidth="1"/>
+    <col min="3" max="4" width="20.25" style="30" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="29" customWidth="1"/>
     <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="27.625" customWidth="1"/>
+    <col min="9" max="9" width="27.58203125" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1846,162 +2471,162 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
-        <v>160</v>
+      <c r="F4" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>161</v>
+      <c r="F5" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>162</v>
+      <c r="F6" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="68" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>163</v>
+      <c r="F7" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="68" x14ac:dyDescent="0.45">
+      <c r="B8" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>164</v>
+      <c r="F8" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="B9" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>165</v>
+      <c r="F9" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>34</v>
@@ -2010,27 +2635,27 @@
         <v>22</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="B10" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>166</v>
+      <c r="F10" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>35</v>
@@ -2039,27 +2664,27 @@
         <v>22</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>167</v>
+      <c r="F11" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>36</v>
@@ -2068,112 +2693,112 @@
         <v>22</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="4" t="s">
-        <v>168</v>
+      <c r="F12" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="68" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>169</v>
+      <c r="F13" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="68" x14ac:dyDescent="0.45">
+      <c r="B14" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>170</v>
+      <c r="F14" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>171</v>
+      <c r="F15" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>37</v>
@@ -2182,25 +2807,25 @@
         <v>22</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="B16" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="4" t="s">
-        <v>172</v>
+      <c r="F16" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>23</v>
@@ -2209,27 +2834,27 @@
         <v>25</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="B17" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>173</v>
+      <c r="F17" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>27</v>
@@ -2238,20 +2863,20 @@
         <v>29</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="F18"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-      <c r="F19"/>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="30"/>
+      <c r="F19" s="30"/>
       <c r="J19"/>
     </row>
   </sheetData>
@@ -2265,13 +2890,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834CD0C-44D3-4F89-9ED5-7369E7AB8B68}">
   <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A13" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="29" customWidth="1"/>
     <col min="3" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
@@ -2281,8 +2906,8 @@
     <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2310,529 +2935,529 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B6" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="51" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="I7" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B8" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I8" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>94</v>
-      </c>
       <c r="I9" s="25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="51" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="I14" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B16" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>103</v>
-      </c>
       <c r="I16" s="25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="51" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="51" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="30"/>
       <c r="F22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B23" s="30"/>
       <c r="F23"/>
       <c r="J23"/>
     </row>
@@ -2845,44 +3470,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B30085F-5542-4CF5-BE7C-A3E5981ECF61}">
-  <dimension ref="B3:J15"/>
+  <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="29" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="33" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="29" customWidth="1"/>
     <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="8" max="8" width="26" style="34" customWidth="1"/>
     <col min="9" max="9" width="19.75" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2892,131 +3518,337 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B4" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="D4" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="27"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
+    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+    <row r="6" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="27"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
+    <row r="7" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+    <row r="9" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="B9" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I9" s="27"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
+    <row r="10" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B10" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
+    <row r="11" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="6"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+    <row r="12" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" s="6"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+    <row r="13" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I13" s="6"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-      <c r="F14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-      <c r="F15"/>
-      <c r="J15"/>
+    <row r="14" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B14" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B16" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="102" x14ac:dyDescent="0.45">
+      <c r="B17" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3029,41 +3861,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E278BB-833E-405A-8CA5-8894D0B1DE9D}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="26" style="30" customWidth="1"/>
+    <col min="4" max="4" width="40.25" style="30" customWidth="1"/>
     <col min="5" max="5" width="31.25" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="29" customWidth="1"/>
     <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="36.25" customWidth="1"/>
     <col min="9" max="9" width="27.25" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -3079,418 +3911,450 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B6" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>61</v>
+      <c r="D7" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>75</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="12" t="s">
+        <v>308</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B9" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>62</v>
+      <c r="D9" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>63</v>
+      <c r="D11" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>75</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="12" t="s">
+        <v>312</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="12" t="s">
+        <v>313</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="12" t="s">
+        <v>314</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="12" t="s">
+        <v>316</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B17" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="12" t="s">
+        <v>317</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="5" t="s">
+    <row r="21" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>64</v>
+      <c r="D21" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>44</v>
+        <v>77</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>65</v>
+      <c r="D23" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="4" t="s">
-        <v>49</v>
+      <c r="F23" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="5" t="s">
+    <row r="24" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>65</v>
+      <c r="D24" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>52</v>
+        <v>78</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="5" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>55</v>
+      <c r="D25" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="4" t="s">
-        <v>54</v>
+      <c r="F25" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="5" t="s">
+    <row r="26" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="B26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
+      <c r="D26" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="5" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="5"/>
       <c r="I27" s="19"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="8"/>
       <c r="H28" s="5"/>
       <c r="I28" s="20"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30"/>
-      <c r="F30"/>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B29" s="30"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Test/Test Case_Test Result.xlsx
+++ b/Test/Test Case_Test Result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\융합소프트웨어종합설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CCEFD5-D5F9-42B8-95E6-8F549CDF52FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE49DB1B-C0AA-4B56-BB50-71B85FC43B3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="323">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1114,14 +1114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모임 일정명, 모임 활동 계획, 모임 일정 기간 및 예상 모임 시간 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운 모임 일정 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1150,26 +1142,14 @@
     <t>TC_214</t>
   </si>
   <si>
-    <t>모임 일정명, 모임 활동 계획, 모임 일정 기간 및 예상 모임 시간 중 하나라도 입력 안 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_203</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF1. 일정 등록 취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">입력된 일정 정보 삭제 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF2. 추천 진행중인 일정 존재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TC_204</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1178,14 +1158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일정을 등록하시겠습니까' 메시지에 취소 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천 진행중인 다른 일정이 있는 경우에 확인 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모임 추천 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1202,10 +1174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AF3. 모임장이 추천 생성을 하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"모임장이 아직 추천 생성을 하지 않았습니다"라는 메세지를 화면상에 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1219,10 +1187,6 @@
   </si>
   <si>
     <t>모임 시간 추천 목록 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AF4. 선택된 시간이 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1498,16 +1462,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>선택 결과 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임장이 최종 장소와 시간 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 일정명, 확정된 시간 및 장소를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 결과 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 추천에 대한 우선순위 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 순위의 시간대와 겹치는 일정이 있었던 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 일정의 조정 가능 정도를 1만큼 낮춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 순위의 시간대와 겹치는 일정이 있는 경우와 없는 경우 모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 시간대의 가중치를 0.1 만큼 낮춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 장소 추천에서 한 번 이상 추천 1순위보다 낮은 순위(2, 3, 4, 5)를 골랐고, 다음 번 장소 추천 시에 그 두 장소가 같이 추천 목록에 나타나고 선택한 장소가 추천해준 장소보다 추천 순위가 낮게 나타나는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 장소의 추천 순위를 바꾸어서 제시함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC-310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF2. 일정 등록 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF3. 추천 진행중인 일정 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4. 모임장이 추천 생성을 하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF5. 선택된 시간이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AF5. 선택된</t>
+      <t>AF6. 선택된</t>
     </r>
     <r>
       <rPr>
@@ -1523,135 +1627,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택 결과 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모임장이 최종 장소와 시간 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모임 일정명, 확정된 시간 및 장소를 화면상에 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천 결과 확정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택된 추천에 대한 우선순위 조정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 순위의 시간대와 겹치는 일정이 있었던 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 일정의 조정 가능 정도를 1만큼 낮춤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 순위의 시간대와 겹치는 일정이 있는 경우와 없는 경우 모두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 시간대의 가중치를 0.1 만큼 낮춤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 장소 추천에서 한 번 이상 추천 1순위보다 낮은 순위(2, 3, 4, 5)를 골랐고, 다음 번 장소 추천 시에 그 두 장소가 같이 추천 목록에 나타나고 선택한 장소가 추천해준 장소보다 추천 순위가 낮게 나타나는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 장소의 추천 순위를 바꾸어서 제시함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC-310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC_314</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_314</t>
+    <t>AF1. 접근 권한 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“모임장이 아닙니다” 라는 메시지를 화면상에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 일정명, 모임 활동 계획, 모임 일정 기간 및 예상 모임 시간 입력 후 '일정을 등록하시겠습니까' 메시지에 취소 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 진행중인 다른 일정이 있는 경우에 '일정을 등록하시겠습니까' 메시지에 확인 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임장이 일정 생성을 위한 '+' 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 일정 등록 페이지로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임장이 아닌 모임원이 일정 생성을 위한 '+' 버튼 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임 일정명, 모임 활동 계획, 모임 일정 기간 및 예상 모임 시간 입력 후 '일정을 등록하시겠습니까' 메시지에 확인 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 정보 저장 후 모임 일정 목록을 화면상에 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3470,10 +3482,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B30085F-5542-4CF5-BE7C-A3E5981ECF61}">
-  <dimension ref="B3:J17"/>
+  <dimension ref="B3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3533,15 +3545,15 @@
         <v>234</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>235</v>
       </c>
@@ -3551,20 +3563,22 @@
       <c r="D5" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>313</v>
+      </c>
       <c r="F5" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" ht="68" x14ac:dyDescent="0.45">
       <c r="B6" s="12" t="s">
         <v>236</v>
       </c>
@@ -3574,22 +3588,20 @@
       <c r="D6" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>262</v>
-      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" ht="68" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
         <v>237</v>
       </c>
@@ -3600,21 +3612,21 @@
         <v>248</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>268</v>
+        <v>260</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>315</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" ht="51" x14ac:dyDescent="0.45">
       <c r="B8" s="12" t="s">
         <v>238</v>
       </c>
@@ -3622,22 +3634,24 @@
         <v>32</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="14"/>
+        <v>248</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>309</v>
+      </c>
       <c r="F8" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="51" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
         <v>239</v>
       </c>
@@ -3645,24 +3659,22 @@
         <v>32</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="51" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
         <v>240</v>
       </c>
@@ -3670,17 +3682,19 @@
         <v>32</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E10" s="14"/>
+        <v>262</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>310</v>
+      </c>
       <c r="F10" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
@@ -3693,19 +3707,17 @@
         <v>32</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>278</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="4"/>
@@ -3718,17 +3730,19 @@
         <v>32</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E12" s="14"/>
+        <v>268</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>311</v>
+      </c>
       <c r="F12" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
@@ -3741,19 +3755,17 @@
         <v>32</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>284</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="4"/>
@@ -3766,17 +3778,19 @@
         <v>32</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" s="32"/>
+        <v>273</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="F14" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>286</v>
+        <v>254</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="4"/>
@@ -3789,17 +3803,17 @@
         <v>32</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="4"/>
@@ -3812,22 +3826,22 @@
         <v>32</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" ht="102" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
         <v>247</v>
       </c>
@@ -3835,20 +3849,43 @@
         <v>32</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" ht="102" x14ac:dyDescent="0.45">
+      <c r="B18" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3980,7 +4017,7 @@
     </row>
     <row r="7" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B7" s="12" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>33</v>
@@ -3992,7 +4029,7 @@
         <v>75</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6" t="s">
@@ -4003,13 +4040,13 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="12" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="5"/>
       <c r="F8" s="12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
@@ -4018,7 +4055,7 @@
     </row>
     <row r="9" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>33</v>
@@ -4030,7 +4067,7 @@
         <v>76</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
@@ -4041,13 +4078,13 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="5"/>
       <c r="F10" s="12" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
@@ -4056,7 +4093,7 @@
     </row>
     <row r="11" spans="2:10" ht="34" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>33</v>
@@ -4068,7 +4105,7 @@
         <v>75</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6" t="s">
@@ -4079,13 +4116,13 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="5"/>
       <c r="F12" s="12" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
@@ -4094,13 +4131,13 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="12" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
@@ -4109,13 +4146,13 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="5"/>
       <c r="F14" s="12" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
@@ -4124,13 +4161,13 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="6"/>
       <c r="F15" s="12" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
@@ -4139,13 +4176,13 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="12" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="5"/>
       <c r="F16" s="12" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
@@ -4154,13 +4191,13 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="6"/>
       <c r="F17" s="12" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
